--- a/rasp_data/ФТИ_5 курс_21-22_осень.xlsx
+++ b/rasp_data/ФТИ_5 курс_21-22_осень.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\umu-rasp\Pub\Осень_21-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Новая папка\Pub\Осень_21-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -347,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,18 +669,10 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Arimo"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,12 +803,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF9999FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1359,7 +1345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1689,71 +1675,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1785,16 +1707,79 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2030,7 +2015,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2059,40 +2044,40 @@
   <sheetData>
     <row r="1" spans="1:20" ht="112.5" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
       <c r="O1" s="83"/>
-      <c r="P1" s="135" t="s">
+      <c r="P1" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="137"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="149"/>
       <c r="T1" s="68"/>
     </row>
     <row r="2" spans="1:20" ht="42" customHeight="1">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2088,7 @@
         <v>67</v>
       </c>
       <c r="I2" s="77">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="2" t="s">
@@ -2126,7 +2111,7 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A3" s="127"/>
+      <c r="A3" s="133"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2186,16 +2171,16 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="142">
         <v>1</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -2210,7 +2195,7 @@
       <c r="H4" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="146" t="s">
+      <c r="I4" s="157" t="s">
         <v>62</v>
       </c>
       <c r="J4" s="63"/>
@@ -2223,7 +2208,7 @@
       <c r="M4" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="146" t="s">
+      <c r="N4" s="157" t="s">
         <v>62</v>
       </c>
       <c r="O4" s="63"/>
@@ -2234,10 +2219,10 @@
       <c r="T4" s="63"/>
     </row>
     <row r="5" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2235,7 @@
       <c r="H5" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="147"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="63"/>
       <c r="K5" s="88" t="s">
         <v>56</v>
@@ -2261,7 +2246,7 @@
       <c r="M5" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="147"/>
+      <c r="N5" s="158"/>
       <c r="O5" s="16"/>
       <c r="P5" s="75"/>
       <c r="Q5" s="74"/>
@@ -2270,14 +2255,14 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="121">
+      <c r="A6" s="135"/>
+      <c r="B6" s="146">
         <v>2</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="139" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -2292,7 +2277,7 @@
       <c r="H6" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="147"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="63"/>
       <c r="K6" s="88" t="s">
         <v>57</v>
@@ -2303,7 +2288,7 @@
       <c r="M6" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="147"/>
+      <c r="N6" s="158"/>
       <c r="O6" s="63"/>
       <c r="P6" s="69"/>
       <c r="Q6" s="74"/>
@@ -2312,10 +2297,10 @@
       <c r="T6" s="63"/>
     </row>
     <row r="7" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A7" s="129"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
@@ -2328,7 +2313,7 @@
       <c r="H7" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="147"/>
+      <c r="I7" s="158"/>
       <c r="J7" s="63"/>
       <c r="K7" s="88" t="s">
         <v>56</v>
@@ -2339,7 +2324,7 @@
       <c r="M7" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="147"/>
+      <c r="N7" s="158"/>
       <c r="O7" s="16"/>
       <c r="P7" s="75"/>
       <c r="Q7" s="74"/>
@@ -2348,14 +2333,14 @@
       <c r="T7" s="16"/>
     </row>
     <row r="8" spans="1:20" ht="133.5" customHeight="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="121">
+      <c r="A8" s="135"/>
+      <c r="B8" s="146">
         <v>3</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="139" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -2370,12 +2355,12 @@
       <c r="H8" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="147"/>
+      <c r="I8" s="158"/>
       <c r="J8" s="63"/>
       <c r="K8" s="102"/>
       <c r="L8" s="100"/>
       <c r="M8" s="116"/>
-      <c r="N8" s="147"/>
+      <c r="N8" s="158"/>
       <c r="O8" s="35"/>
       <c r="P8" s="69"/>
       <c r="Q8" s="74"/>
@@ -2384,17 +2369,17 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9" spans="1:20" ht="133.5" customHeight="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="102"/>
       <c r="G9" s="100"/>
       <c r="H9" s="116"/>
-      <c r="I9" s="147"/>
+      <c r="I9" s="158"/>
       <c r="J9" s="63"/>
       <c r="K9" s="88" t="s">
         <v>74</v>
@@ -2405,7 +2390,7 @@
       <c r="M9" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="147"/>
+      <c r="N9" s="158"/>
       <c r="O9" s="63"/>
       <c r="P9" s="73"/>
       <c r="Q9" s="74"/>
@@ -2414,14 +2399,14 @@
       <c r="T9" s="63"/>
     </row>
     <row r="10" spans="1:20" ht="133.5" customHeight="1">
-      <c r="A10" s="129"/>
-      <c r="B10" s="121">
+      <c r="A10" s="135"/>
+      <c r="B10" s="146">
         <v>4</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="139" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -2436,12 +2421,12 @@
       <c r="H10" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="147"/>
+      <c r="I10" s="158"/>
       <c r="J10" s="63"/>
       <c r="K10" s="102"/>
       <c r="L10" s="100"/>
       <c r="M10" s="116"/>
-      <c r="N10" s="147"/>
+      <c r="N10" s="158"/>
       <c r="O10" s="35"/>
       <c r="P10" s="69"/>
       <c r="Q10" s="74"/>
@@ -2450,17 +2435,17 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="133.5" customHeight="1">
-      <c r="A11" s="129"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="102"/>
       <c r="G11" s="100"/>
       <c r="H11" s="116"/>
-      <c r="I11" s="147"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="63"/>
       <c r="K11" s="88" t="s">
         <v>74</v>
@@ -2471,7 +2456,7 @@
       <c r="M11" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="147"/>
+      <c r="N11" s="158"/>
       <c r="O11" s="63"/>
       <c r="P11" s="73"/>
       <c r="Q11" s="74"/>
@@ -2480,14 +2465,14 @@
       <c r="T11" s="63"/>
     </row>
     <row r="12" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A12" s="129"/>
-      <c r="B12" s="121">
+      <c r="A12" s="135"/>
+      <c r="B12" s="146">
         <v>5</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="139" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -2496,12 +2481,12 @@
       <c r="F12" s="103"/>
       <c r="G12" s="104"/>
       <c r="H12" s="105"/>
-      <c r="I12" s="148"/>
+      <c r="I12" s="159"/>
       <c r="J12" s="63"/>
       <c r="K12" s="106"/>
       <c r="L12" s="104"/>
       <c r="M12" s="105"/>
-      <c r="N12" s="148"/>
+      <c r="N12" s="159"/>
       <c r="O12" s="35"/>
       <c r="P12" s="69"/>
       <c r="Q12" s="70"/>
@@ -2510,22 +2495,22 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="36" customHeight="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="102"/>
       <c r="G13" s="100"/>
       <c r="H13" s="101"/>
-      <c r="I13" s="149"/>
+      <c r="I13" s="160"/>
       <c r="J13" s="63"/>
       <c r="K13" s="102"/>
       <c r="L13" s="100"/>
       <c r="M13" s="116"/>
-      <c r="N13" s="149"/>
+      <c r="N13" s="160"/>
       <c r="O13" s="63"/>
       <c r="P13" s="69"/>
       <c r="Q13" s="70"/>
@@ -2534,14 +2519,14 @@
       <c r="T13" s="63"/>
     </row>
     <row r="14" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A14" s="129"/>
-      <c r="B14" s="126">
+      <c r="A14" s="135"/>
+      <c r="B14" s="144">
         <v>6</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="140" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -2564,10 +2549,10 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15" spans="1:20" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A15" s="130"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="26" t="s">
         <v>17</v>
       </c>
@@ -2588,16 +2573,16 @@
       <c r="T15" s="66"/>
     </row>
     <row r="16" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="131">
+      <c r="B16" s="142">
         <v>1</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -2620,10 +2605,10 @@
       <c r="T16" s="35"/>
     </row>
     <row r="17" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="17" t="s">
         <v>17</v>
       </c>
@@ -2644,14 +2629,14 @@
       <c r="T17" s="35"/>
     </row>
     <row r="18" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A18" s="129"/>
-      <c r="B18" s="121">
+      <c r="A18" s="135"/>
+      <c r="B18" s="146">
         <v>2</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="139" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -2674,10 +2659,10 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A19" s="129"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
       <c r="E19" s="19" t="s">
         <v>17</v>
       </c>
@@ -2698,14 +2683,14 @@
       <c r="T19" s="63"/>
     </row>
     <row r="20" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A20" s="129"/>
-      <c r="B20" s="121">
+      <c r="A20" s="135"/>
+      <c r="B20" s="146">
         <v>3</v>
       </c>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="139" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -2728,10 +2713,10 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A21" s="129"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="19" t="s">
         <v>17</v>
       </c>
@@ -2772,14 +2757,14 @@
       <c r="T21" s="35"/>
     </row>
     <row r="22" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A22" s="129"/>
-      <c r="B22" s="121">
+      <c r="A22" s="135"/>
+      <c r="B22" s="146">
         <v>4</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="139" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -2822,10 +2807,10 @@
       <c r="T22" s="63"/>
     </row>
     <row r="23" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A23" s="129"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
       <c r="E23" s="19" t="s">
         <v>17</v>
       </c>
@@ -2866,14 +2851,14 @@
       <c r="T23" s="35"/>
     </row>
     <row r="24" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A24" s="129"/>
-      <c r="B24" s="121">
+      <c r="A24" s="135"/>
+      <c r="B24" s="146">
         <v>5</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="139" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -2916,10 +2901,10 @@
       <c r="T24" s="35"/>
     </row>
     <row r="25" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A25" s="129"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="19" t="s">
         <v>17</v>
       </c>
@@ -2960,14 +2945,14 @@
       <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A26" s="129"/>
-      <c r="B26" s="126">
+      <c r="A26" s="135"/>
+      <c r="B26" s="144">
         <v>6</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="140" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="19" t="s">
@@ -3010,10 +2995,10 @@
       <c r="T26" s="63"/>
     </row>
     <row r="27" spans="1:20" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A27" s="130"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="26" t="s">
         <v>17</v>
       </c>
@@ -3053,17 +3038,17 @@
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A28" s="128" t="s">
+    <row r="28" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A28" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="131">
+      <c r="B28" s="142">
         <v>1</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -3074,7 +3059,7 @@
       <c r="H28" s="117"/>
       <c r="I28" s="64"/>
       <c r="J28" s="64"/>
-      <c r="K28" s="143" t="s">
+      <c r="K28" s="155" t="s">
         <v>30</v>
       </c>
       <c r="L28" s="109"/>
@@ -3087,11 +3072,11 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A29" s="129"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
+    <row r="29" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A29" s="135"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="17" t="s">
         <v>17</v>
       </c>
@@ -3100,7 +3085,7 @@
       <c r="H29" s="72"/>
       <c r="I29" s="35"/>
       <c r="J29" s="63"/>
-      <c r="K29" s="144"/>
+      <c r="K29" s="156"/>
       <c r="L29" s="70"/>
       <c r="M29" s="72"/>
       <c r="N29" s="16"/>
@@ -3111,15 +3096,15 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A30" s="129"/>
-      <c r="B30" s="121">
+    <row r="30" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A30" s="135"/>
+      <c r="B30" s="146">
         <v>2</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="139" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -3130,7 +3115,7 @@
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
-      <c r="K30" s="144"/>
+      <c r="K30" s="156"/>
       <c r="L30" s="70"/>
       <c r="M30" s="72"/>
       <c r="N30" s="16"/>
@@ -3141,11 +3126,11 @@
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
     </row>
-    <row r="31" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A31" s="129"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
+    <row r="31" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A31" s="135"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="19" t="s">
         <v>17</v>
       </c>
@@ -3162,7 +3147,7 @@
         <v>75</v>
       </c>
       <c r="J31" s="35"/>
-      <c r="K31" s="144"/>
+      <c r="K31" s="156"/>
       <c r="L31" s="70"/>
       <c r="M31" s="72"/>
       <c r="N31" s="16"/>
@@ -3173,15 +3158,15 @@
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
     </row>
-    <row r="32" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A32" s="129"/>
-      <c r="B32" s="121">
+    <row r="32" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A32" s="135"/>
+      <c r="B32" s="146">
         <v>3</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="139" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -3192,7 +3177,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="35"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="144"/>
+      <c r="K32" s="156"/>
       <c r="L32" s="70"/>
       <c r="M32" s="72"/>
       <c r="N32" s="16"/>
@@ -3203,11 +3188,11 @@
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
     </row>
-    <row r="33" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A33" s="129"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
+    <row r="33" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A33" s="135"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="19" t="s">
         <v>17</v>
       </c>
@@ -3224,7 +3209,7 @@
         <v>75</v>
       </c>
       <c r="J33" s="16"/>
-      <c r="K33" s="144"/>
+      <c r="K33" s="156"/>
       <c r="L33" s="70"/>
       <c r="M33" s="72"/>
       <c r="N33" s="16"/>
@@ -3235,15 +3220,15 @@
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
     </row>
-    <row r="34" spans="1:20" ht="87.75" customHeight="1">
-      <c r="A34" s="129"/>
-      <c r="B34" s="121">
+    <row r="34" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A34" s="135"/>
+      <c r="B34" s="146">
         <v>4</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="139" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3254,7 +3239,7 @@
       <c r="H34" s="34"/>
       <c r="I34" s="35"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="144"/>
+      <c r="K34" s="156"/>
       <c r="L34" s="70"/>
       <c r="M34" s="72"/>
       <c r="N34" s="16"/>
@@ -3265,11 +3250,11 @@
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="1:20" ht="90.75" customHeight="1">
-      <c r="A35" s="129"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
+    <row r="35" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A35" s="135"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="19" t="s">
         <v>17</v>
       </c>
@@ -3286,7 +3271,7 @@
         <v>75</v>
       </c>
       <c r="J35" s="16"/>
-      <c r="K35" s="145"/>
+      <c r="K35" s="138"/>
       <c r="L35" s="70"/>
       <c r="M35" s="74"/>
       <c r="N35" s="16"/>
@@ -3297,15 +3282,15 @@
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="1:20" ht="92.25" customHeight="1">
-      <c r="A36" s="129"/>
-      <c r="B36" s="121">
+    <row r="36" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A36" s="135"/>
+      <c r="B36" s="146">
         <v>5</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="139" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="19" t="s">
@@ -3327,11 +3312,11 @@
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="1:20" ht="97.5" customHeight="1">
-      <c r="A37" s="129"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
+    <row r="37" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A37" s="135"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="19" t="s">
         <v>17</v>
       </c>
@@ -3359,15 +3344,15 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A38" s="129"/>
-      <c r="B38" s="126">
+    <row r="38" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A38" s="135"/>
+      <c r="B38" s="144">
         <v>6</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="123" t="s">
+      <c r="D38" s="140" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -3389,11 +3374,11 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A39" s="130"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
+    <row r="39" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A39" s="136"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="26" t="s">
         <v>17</v>
       </c>
@@ -3414,16 +3399,16 @@
       <c r="T39" s="30"/>
     </row>
     <row r="40" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="131">
+      <c r="B40" s="142">
         <v>1</v>
       </c>
-      <c r="C40" s="125" t="s">
+      <c r="C40" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="125" t="s">
+      <c r="D40" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -3462,10 +3447,10 @@
       <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A41" s="129"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
       <c r="E41" s="17" t="s">
         <v>17</v>
       </c>
@@ -3502,14 +3487,14 @@
       <c r="T41" s="16"/>
     </row>
     <row r="42" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A42" s="129"/>
-      <c r="B42" s="121">
+      <c r="A42" s="135"/>
+      <c r="B42" s="146">
         <v>2</v>
       </c>
-      <c r="C42" s="119" t="s">
+      <c r="C42" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="119" t="s">
+      <c r="D42" s="139" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="19" t="s">
@@ -3548,10 +3533,10 @@
       <c r="T42" s="63"/>
     </row>
     <row r="43" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A43" s="129"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
       <c r="E43" s="19" t="s">
         <v>17</v>
       </c>
@@ -3588,14 +3573,14 @@
       <c r="T43" s="63"/>
     </row>
     <row r="44" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A44" s="129"/>
-      <c r="B44" s="121">
+      <c r="A44" s="135"/>
+      <c r="B44" s="146">
         <v>3</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="119" t="s">
+      <c r="D44" s="139" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="19" t="s">
@@ -3634,10 +3619,10 @@
       <c r="T44" s="63"/>
     </row>
     <row r="45" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A45" s="129"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
       <c r="E45" s="19" t="s">
         <v>17</v>
       </c>
@@ -3674,14 +3659,14 @@
       <c r="T45" s="63"/>
     </row>
     <row r="46" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A46" s="129"/>
-      <c r="B46" s="121">
+      <c r="A46" s="135"/>
+      <c r="B46" s="146">
         <v>4</v>
       </c>
-      <c r="C46" s="119" t="s">
+      <c r="C46" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="119" t="s">
+      <c r="D46" s="139" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -3720,10 +3705,10 @@
       <c r="T46" s="63"/>
     </row>
     <row r="47" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A47" s="129"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
       <c r="E47" s="19" t="s">
         <v>17</v>
       </c>
@@ -3760,14 +3745,14 @@
       <c r="T47" s="35"/>
     </row>
     <row r="48" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A48" s="129"/>
-      <c r="B48" s="121">
+      <c r="A48" s="135"/>
+      <c r="B48" s="146">
         <v>5</v>
       </c>
-      <c r="C48" s="119" t="s">
+      <c r="C48" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="119" t="s">
+      <c r="D48" s="139" t="s">
         <v>25</v>
       </c>
       <c r="E48" s="19" t="s">
@@ -3806,10 +3791,10 @@
       <c r="T48" s="63"/>
     </row>
     <row r="49" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A49" s="129"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
+      <c r="A49" s="135"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
       <c r="E49" s="19" t="s">
         <v>17</v>
       </c>
@@ -3846,14 +3831,14 @@
       <c r="T49" s="63"/>
     </row>
     <row r="50" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A50" s="129"/>
-      <c r="B50" s="126">
+      <c r="A50" s="135"/>
+      <c r="B50" s="144">
         <v>6</v>
       </c>
-      <c r="C50" s="123" t="s">
+      <c r="C50" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="123" t="s">
+      <c r="D50" s="140" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="19" t="s">
@@ -3876,10 +3861,10 @@
       <c r="T50" s="16"/>
     </row>
     <row r="51" spans="1:20" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A51" s="130"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
       <c r="E51" s="26" t="s">
         <v>17</v>
       </c>
@@ -3900,16 +3885,16 @@
       <c r="T51" s="30"/>
     </row>
     <row r="52" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="126">
+      <c r="B52" s="144">
         <v>1</v>
       </c>
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="125" t="s">
+      <c r="D52" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="39" t="s">
@@ -3948,10 +3933,10 @@
       <c r="T52" s="35"/>
     </row>
     <row r="53" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A53" s="129"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
+      <c r="A53" s="135"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="17" t="s">
         <v>17</v>
       </c>
@@ -3988,14 +3973,14 @@
       <c r="T53" s="35"/>
     </row>
     <row r="54" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A54" s="129"/>
-      <c r="B54" s="121">
+      <c r="A54" s="135"/>
+      <c r="B54" s="146">
         <v>2</v>
       </c>
-      <c r="C54" s="119" t="s">
+      <c r="C54" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="119" t="s">
+      <c r="D54" s="139" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="19" t="s">
@@ -4034,10 +4019,10 @@
       <c r="T54" s="63"/>
     </row>
     <row r="55" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A55" s="129"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="138"/>
       <c r="E55" s="19" t="s">
         <v>17</v>
       </c>
@@ -4074,14 +4059,14 @@
       <c r="T55" s="16"/>
     </row>
     <row r="56" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A56" s="129"/>
-      <c r="B56" s="121">
+      <c r="A56" s="135"/>
+      <c r="B56" s="146">
         <v>3</v>
       </c>
-      <c r="C56" s="119" t="s">
+      <c r="C56" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="119" t="s">
+      <c r="D56" s="139" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -4120,10 +4105,10 @@
       <c r="T56" s="35"/>
     </row>
     <row r="57" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A57" s="129"/>
-      <c r="B57" s="122"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
+      <c r="A57" s="135"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="138"/>
       <c r="E57" s="19" t="s">
         <v>17</v>
       </c>
@@ -4160,14 +4145,14 @@
       <c r="T57" s="35"/>
     </row>
     <row r="58" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A58" s="129"/>
-      <c r="B58" s="121">
+      <c r="A58" s="135"/>
+      <c r="B58" s="146">
         <v>4</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="C58" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="119" t="s">
+      <c r="D58" s="139" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="19" t="s">
@@ -4206,10 +4191,10 @@
       <c r="T58" s="16"/>
     </row>
     <row r="59" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A59" s="129"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
+      <c r="A59" s="135"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
       <c r="E59" s="19" t="s">
         <v>17</v>
       </c>
@@ -4246,14 +4231,14 @@
       <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A60" s="129"/>
-      <c r="B60" s="121">
+      <c r="A60" s="135"/>
+      <c r="B60" s="146">
         <v>5</v>
       </c>
-      <c r="C60" s="119" t="s">
+      <c r="C60" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="119" t="s">
+      <c r="D60" s="139" t="s">
         <v>25</v>
       </c>
       <c r="E60" s="19" t="s">
@@ -4276,10 +4261,10 @@
       <c r="T60" s="16"/>
     </row>
     <row r="61" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A61" s="129"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
+      <c r="A61" s="135"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138"/>
       <c r="E61" s="19" t="s">
         <v>17</v>
       </c>
@@ -4300,14 +4285,14 @@
       <c r="T61" s="63"/>
     </row>
     <row r="62" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A62" s="129"/>
-      <c r="B62" s="126">
+      <c r="A62" s="135"/>
+      <c r="B62" s="144">
         <v>6</v>
       </c>
-      <c r="C62" s="123" t="s">
+      <c r="C62" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="123" t="s">
+      <c r="D62" s="140" t="s">
         <v>27</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -4330,10 +4315,10 @@
       <c r="T62" s="16"/>
     </row>
     <row r="63" spans="1:20" ht="38.1" customHeight="1" thickBot="1">
-      <c r="A63" s="130"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
+      <c r="A63" s="136"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
       <c r="E63" s="26" t="s">
         <v>17</v>
       </c>
@@ -4354,16 +4339,16 @@
       <c r="T63" s="66"/>
     </row>
     <row r="64" spans="1:20" ht="52.5" customHeight="1">
-      <c r="A64" s="134" t="s">
+      <c r="A64" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="131">
+      <c r="B64" s="142">
         <v>1</v>
       </c>
-      <c r="C64" s="125" t="s">
+      <c r="C64" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="125" t="s">
+      <c r="D64" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="12" t="s">
@@ -4394,10 +4379,10 @@
       <c r="T64" s="63"/>
     </row>
     <row r="65" spans="1:20" ht="48" customHeight="1">
-      <c r="A65" s="129"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="120"/>
-      <c r="D65" s="120"/>
+      <c r="A65" s="135"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="138"/>
       <c r="E65" s="17" t="s">
         <v>17</v>
       </c>
@@ -4426,14 +4411,14 @@
       <c r="T65" s="63"/>
     </row>
     <row r="66" spans="1:20" ht="45" customHeight="1">
-      <c r="A66" s="129"/>
-      <c r="B66" s="121">
+      <c r="A66" s="135"/>
+      <c r="B66" s="146">
         <v>2</v>
       </c>
-      <c r="C66" s="119" t="s">
+      <c r="C66" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="119" t="s">
+      <c r="D66" s="139" t="s">
         <v>19</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -4464,10 +4449,10 @@
       <c r="T66" s="63"/>
     </row>
     <row r="67" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A67" s="129"/>
-      <c r="B67" s="122"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="120"/>
+      <c r="A67" s="135"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="138"/>
       <c r="E67" s="19" t="s">
         <v>17</v>
       </c>
@@ -4495,21 +4480,21 @@
       <c r="S67" s="76"/>
       <c r="T67" s="63"/>
     </row>
-    <row r="68" spans="1:20" ht="67.5" customHeight="1">
-      <c r="A68" s="129"/>
-      <c r="B68" s="121">
+    <row r="68" spans="1:20" ht="69" customHeight="1">
+      <c r="A68" s="135"/>
+      <c r="B68" s="146">
         <v>3</v>
       </c>
-      <c r="C68" s="119" t="s">
+      <c r="C68" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="119" t="s">
+      <c r="D68" s="139" t="s">
         <v>21</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="85" t="s">
+      <c r="F68" s="84" t="s">
         <v>80</v>
       </c>
       <c r="G68" s="33" t="s">
@@ -4533,20 +4518,20 @@
       <c r="S68" s="71"/>
       <c r="T68" s="63"/>
     </row>
-    <row r="69" spans="1:20" ht="61.5" customHeight="1">
-      <c r="A69" s="129"/>
-      <c r="B69" s="122"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="120"/>
+    <row r="69" spans="1:20" ht="69" customHeight="1">
+      <c r="A69" s="135"/>
+      <c r="B69" s="143"/>
+      <c r="C69" s="138"/>
+      <c r="D69" s="138"/>
       <c r="E69" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="22"/>
+      <c r="F69" s="165"/>
       <c r="G69" s="86"/>
       <c r="H69" s="87"/>
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
-      <c r="K69" s="85" t="s">
+      <c r="K69" s="84" t="s">
         <v>79</v>
       </c>
       <c r="L69" s="33" t="s">
@@ -4565,21 +4550,21 @@
       <c r="S69" s="76"/>
       <c r="T69" s="63"/>
     </row>
-    <row r="70" spans="1:20" ht="66" customHeight="1">
-      <c r="A70" s="129"/>
-      <c r="B70" s="121">
+    <row r="70" spans="1:20" ht="69" customHeight="1">
+      <c r="A70" s="135"/>
+      <c r="B70" s="146">
         <v>4</v>
       </c>
-      <c r="C70" s="119" t="s">
+      <c r="C70" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="119" t="s">
+      <c r="D70" s="139" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="85" t="s">
+      <c r="F70" s="84" t="s">
         <v>80</v>
       </c>
       <c r="G70" s="33" t="s">
@@ -4592,7 +4577,7 @@
         <v>76</v>
       </c>
       <c r="J70" s="63"/>
-      <c r="K70" s="85"/>
+      <c r="K70" s="84"/>
       <c r="L70" s="33"/>
       <c r="M70" s="34"/>
       <c r="N70" s="76"/>
@@ -4603,11 +4588,11 @@
       <c r="S70" s="71"/>
       <c r="T70" s="63"/>
     </row>
-    <row r="71" spans="1:20" ht="67.5" customHeight="1">
-      <c r="A71" s="129"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="120"/>
-      <c r="D71" s="120"/>
+    <row r="71" spans="1:20" ht="69" customHeight="1">
+      <c r="A71" s="135"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="138"/>
       <c r="E71" s="19" t="s">
         <v>17</v>
       </c>
@@ -4616,7 +4601,7 @@
       <c r="H71" s="97"/>
       <c r="I71" s="98"/>
       <c r="J71" s="98"/>
-      <c r="K71" s="85" t="s">
+      <c r="K71" s="84" t="s">
         <v>79</v>
       </c>
       <c r="L71" s="33" t="s">
@@ -4636,20 +4621,20 @@
       <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A72" s="129"/>
-      <c r="B72" s="121">
+      <c r="A72" s="135"/>
+      <c r="B72" s="146">
         <v>5</v>
       </c>
-      <c r="C72" s="119" t="s">
+      <c r="C72" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="119" t="s">
+      <c r="D72" s="139" t="s">
         <v>25</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="165" t="s">
+      <c r="F72" s="92" t="s">
         <v>83</v>
       </c>
       <c r="G72" s="33" t="s">
@@ -4674,14 +4659,14 @@
       <c r="T72" s="16"/>
     </row>
     <row r="73" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A73" s="129"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="143"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="138"/>
       <c r="E73" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="165" t="s">
+      <c r="F73" s="92" t="s">
         <v>84</v>
       </c>
       <c r="G73" s="33" t="s">
@@ -4706,20 +4691,20 @@
       <c r="T73" s="23"/>
     </row>
     <row r="74" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A74" s="129"/>
-      <c r="B74" s="126">
+      <c r="A74" s="135"/>
+      <c r="B74" s="144">
         <v>6</v>
       </c>
-      <c r="C74" s="123" t="s">
+      <c r="C74" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="123" t="s">
+      <c r="D74" s="140" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="165" t="s">
+      <c r="F74" s="92" t="s">
         <v>83</v>
       </c>
       <c r="G74" s="33" t="s">
@@ -4744,14 +4729,14 @@
       <c r="T74" s="16"/>
     </row>
     <row r="75" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A75" s="130"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="124"/>
+      <c r="A75" s="136"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="141"/>
       <c r="E75" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="166" t="s">
+      <c r="F75" s="119" t="s">
         <v>84</v>
       </c>
       <c r="G75" s="67" t="s">
@@ -4792,13 +4777,13 @@
       <c r="J76" s="43"/>
       <c r="K76" s="90"/>
       <c r="L76" s="90"/>
-      <c r="M76" s="150"/>
-      <c r="N76" s="151"/>
-      <c r="O76" s="151"/>
-      <c r="P76" s="152"/>
-      <c r="Q76" s="153"/>
-      <c r="R76" s="151"/>
-      <c r="S76" s="154"/>
+      <c r="M76" s="120"/>
+      <c r="N76" s="121"/>
+      <c r="O76" s="121"/>
+      <c r="P76" s="122"/>
+      <c r="Q76" s="123"/>
+      <c r="R76" s="121"/>
+      <c r="S76" s="124"/>
       <c r="T76" s="43"/>
     </row>
     <row r="77" spans="1:20" ht="21" customHeight="1">
@@ -4826,17 +4811,17 @@
     <row r="78" spans="1:20" ht="37.5" customHeight="1">
       <c r="A78" s="49"/>
       <c r="B78" s="50"/>
-      <c r="C78" s="155" t="s">
+      <c r="C78" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="156"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="156"/>
-      <c r="I78" s="156"/>
-      <c r="J78" s="156"/>
-      <c r="K78" s="157"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="127"/>
       <c r="L78" s="21"/>
       <c r="M78" s="32"/>
       <c r="N78" s="51"/>
@@ -4850,17 +4835,17 @@
     <row r="79" spans="1:20" ht="30" customHeight="1">
       <c r="A79" s="49"/>
       <c r="B79" s="50"/>
-      <c r="C79" s="158" t="s">
+      <c r="C79" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="156"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
-      <c r="K79" s="157"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="126"/>
+      <c r="K79" s="127"/>
       <c r="L79" s="21"/>
       <c r="M79" s="32"/>
       <c r="N79" s="51"/>
@@ -4874,17 +4859,17 @@
     <row r="80" spans="1:20" ht="30" customHeight="1">
       <c r="A80" s="49"/>
       <c r="B80" s="50"/>
-      <c r="C80" s="159" t="s">
+      <c r="C80" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="156"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="156"/>
-      <c r="I80" s="156"/>
-      <c r="J80" s="156"/>
-      <c r="K80" s="157"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="127"/>
       <c r="L80" s="21"/>
       <c r="M80" s="32"/>
       <c r="N80" s="51"/>
@@ -4946,17 +4931,17 @@
     <row r="83" spans="1:20" ht="30" customHeight="1">
       <c r="A83" s="49"/>
       <c r="B83" s="50"/>
-      <c r="C83" s="160" t="s">
+      <c r="C83" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="156"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="156"/>
-      <c r="H83" s="156"/>
-      <c r="I83" s="156"/>
-      <c r="J83" s="156"/>
-      <c r="K83" s="157"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="126"/>
+      <c r="I83" s="126"/>
+      <c r="J83" s="126"/>
+      <c r="K83" s="127"/>
       <c r="L83" s="21"/>
       <c r="M83" s="32"/>
       <c r="N83" s="51"/>
@@ -4970,17 +4955,17 @@
     <row r="84" spans="1:20" ht="30" customHeight="1">
       <c r="A84" s="49"/>
       <c r="B84" s="50"/>
-      <c r="C84" s="161" t="s">
+      <c r="C84" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="156"/>
-      <c r="E84" s="156"/>
-      <c r="F84" s="156"/>
-      <c r="G84" s="156"/>
-      <c r="H84" s="156"/>
-      <c r="I84" s="156"/>
-      <c r="J84" s="156"/>
-      <c r="K84" s="157"/>
+      <c r="D84" s="126"/>
+      <c r="E84" s="126"/>
+      <c r="F84" s="126"/>
+      <c r="G84" s="126"/>
+      <c r="H84" s="126"/>
+      <c r="I84" s="126"/>
+      <c r="J84" s="126"/>
+      <c r="K84" s="127"/>
       <c r="L84" s="21"/>
       <c r="M84" s="32"/>
       <c r="N84" s="51"/>
@@ -25159,6 +25144,110 @@
     </row>
   </sheetData>
   <mergeCells count="128">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="N4:N13"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="M76:P76"/>
     <mergeCell ref="Q76:S76"/>
     <mergeCell ref="C78:K78"/>
@@ -25183,110 +25272,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="N4:N13"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J22" r:id="rId1"/>
